--- a/public/invoice.xlsx
+++ b/public/invoice.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26911"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44C0735F-22CB-43E8-AC3C-E4E3C213D0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6840369-FA67-404D-9FCD-8DCF777090AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>INVOICE</t>
   </si>
@@ -85,12 +85,6 @@
   </si>
   <si>
     <t>AMOUNT</t>
-  </si>
-  <si>
-    <t>ADC12</t>
-  </si>
-  <si>
-    <t>Kg</t>
   </si>
   <si>
     <t>TOTAL AMOUNT</t>
@@ -473,100 +467,100 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -959,7 +953,7 @@
   <dimension ref="A4:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H19"/>
+      <selection activeCell="A13" sqref="A13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -975,18 +969,18 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="2"/>
@@ -1047,10 +1041,10 @@
       <c r="H8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="49">
         <v>6103003694</v>
       </c>
-      <c r="J8" s="26"/>
+      <c r="J8" s="49"/>
     </row>
     <row r="9" spans="1:10" ht="13.9" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -1097,175 +1091,155 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="38" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="37"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:10" ht="16.5">
-      <c r="A13" s="43">
-        <v>1</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="47">
-        <v>400000</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="50">
-        <v>34250</v>
-      </c>
-      <c r="I13" s="28">
+      <c r="A13" s="33"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="47">
         <f>H13*F13</f>
-        <v>13700000000</v>
-      </c>
-      <c r="J13" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="48"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A14" s="43">
-        <v>1</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="47">
-        <v>400000</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="50">
-        <v>34250</v>
-      </c>
-      <c r="I14" s="28">
+      <c r="A14" s="33"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="47">
         <f t="shared" ref="I14:I19" si="0">H14*F14</f>
-        <v>13700000000</v>
-      </c>
-      <c r="J14" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="28">
+      <c r="A15" s="33"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="30"/>
+      <c r="J15" s="48"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A16" s="43"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="28">
+      <c r="A16" s="33"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="30"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="28">
+      <c r="A17" s="33"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="30"/>
+      <c r="J17" s="48"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="28">
+      <c r="A18" s="33"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="30"/>
+      <c r="J18" s="48"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="54">
+      <c r="A19" s="33"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="39"/>
+      <c r="J19" s="54"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="29">
+      <c r="A20" s="24"/>
+      <c r="B20" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="50">
         <f>SUM(I13:J19)</f>
-        <v>27400000000</v>
-      </c>
-      <c r="J20" s="29"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="34" t="s">
-        <v>21</v>
+      <c r="A21" s="25"/>
+      <c r="B21" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -1273,16 +1247,16 @@
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="23">
+      <c r="I21" s="51">
         <f>I20*11%</f>
-        <v>3014000000</v>
-      </c>
-      <c r="J21" s="23"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="51"/>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1">
-      <c r="A22" s="33"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -1290,11 +1264,11 @@
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="24">
+      <c r="I22" s="52">
         <f>I20+I21</f>
-        <v>30414000000</v>
-      </c>
-      <c r="J22" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="52"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1">
       <c r="A23" s="12"/>
@@ -1320,7 +1294,7 @@
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1">
       <c r="A25" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1333,7 +1307,7 @@
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1">
       <c r="A26" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -1346,7 +1320,7 @@
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
       <c r="A27" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1359,7 +1333,7 @@
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
       <c r="A28" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1369,7 +1343,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="12"/>
       <c r="I28" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J28" s="18"/>
     </row>
@@ -1416,18 +1390,12 @@
     <row r="34" spans="9:9" ht="14.25" customHeight="1"/>
     <row r="35" spans="9:9" ht="13.5" customHeight="1">
       <c r="I35" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="14">
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I8:J8"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
@@ -1436,6 +1404,12 @@
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.47222222222221999" right="0" top="1.3388888888888999" bottom="0.19652777777777999" header="0.51181102362205" footer="0.51181102362205"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait"/>

--- a/public/invoice.xlsx
+++ b/public/invoice.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6840369-FA67-404D-9FCD-8DCF777090AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teguh.yuhono\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D25D7C-AA24-45AB-AE7B-6127CCEAFBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -22,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -119,12 +122,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* \-_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* \-_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -136,50 +139,53 @@
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -187,6 +193,7 @@
       <sz val="26"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -423,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -437,17 +444,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -456,36 +462,36 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -494,73 +500,73 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -952,37 +958,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:H14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" customWidth="1"/>
+    <col min="5" max="5" width="4.36328125" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -994,7 +1000,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1006,7 +1012,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="13.9" customHeight="1">
+    <row r="7" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -1016,37 +1022,33 @@
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="H7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.9" customHeight="1">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="49">
+      <c r="H8" s="42">
         <v>6103003694</v>
       </c>
-      <c r="J8" s="49"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.9" customHeight="1">
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1056,346 +1058,349 @@
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="13.9" customHeight="1">
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="13.9" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="12"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A12" s="29" t="s">
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="29" t="s">
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="44"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.5">
-      <c r="A13" s="33"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="47">
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="43">
         <f>H13*F13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="48"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="47">
+      <c r="J13" s="44"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="43">
         <f t="shared" ref="I14:I19" si="0">H14*F14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="48"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="47">
+      <c r="J14" s="44"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="48"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="47">
+      <c r="J15" s="44"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="48"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="47">
+      <c r="J16" s="44"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="48"/>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="47">
+      <c r="J17" s="44"/>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="48"/>
-    </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="53">
+      <c r="J18" s="44"/>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="54"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="34" t="s">
+      <c r="J19" s="49"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="50">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="45">
         <f>SUM(I13:J19)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="50"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="27" t="s">
+      <c r="J20" s="45"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="51">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="46">
         <f>I20*11%</f>
         <v>0</v>
       </c>
-      <c r="J21" s="51"/>
-    </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" s="16" t="s">
+      <c r="J21" s="46"/>
+    </row>
+    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="52">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="47">
         <f>I20+I21</f>
         <v>0</v>
       </c>
-      <c r="J22" s="52"/>
-    </row>
-    <row r="23" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="12"/>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A25" s="12" t="s">
+      <c r="J22" s="47"/>
+    </row>
+    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="11"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="12"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1">
-      <c r="A26" s="20" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="11"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="12"/>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1">
-      <c r="A27" s="21" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="11"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="12"/>
-      <c r="J27" s="18"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1">
-      <c r="A28" s="21" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="11"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="18"/>
-    </row>
-    <row r="29" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="18"/>
-    </row>
-    <row r="31" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="1:10" ht="26.25" customHeight="1">
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="9:9" ht="14.25" customHeight="1"/>
-    <row r="34" spans="9:9" ht="14.25" customHeight="1"/>
-    <row r="35" spans="9:9" ht="13.5" customHeight="1">
-      <c r="I35" s="11" t="s">
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="9:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="10" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="14">
+  <mergeCells count="13">
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
@@ -1404,15 +1409,9 @@
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.47222222222221999" right="0" top="1.3388888888888999" bottom="0.19652777777777999" header="0.51181102362205" footer="0.51181102362205"/>
-  <pageSetup paperSize="9" scale="98" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/invoice.xlsx
+++ b/public/invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teguh.yuhono\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D25D7C-AA24-45AB-AE7B-6127CCEAFBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2775C6AB-9DD5-4174-8F0E-E4603596821E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">sheet1!$A$1:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">sheet1!$A$1:$K$36</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -48,9 +48,6 @@
     <t>Customer</t>
   </si>
   <si>
-    <t>PT. AISIN INDONESIA Automotive</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>Resky Agusta</t>
+  </si>
+  <si>
+    <t>PT. TOYOTA MOTOR MANUFACTURING INDONESIA</t>
   </si>
 </sst>
 </file>
@@ -536,12 +536,6 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -551,12 +545,6 @@
     <xf numFmtId="167" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -568,6 +556,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -975,18 +975,18 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1026,22 +1026,22 @@
         <v>3</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="42">
         <v>6103003694</v>
@@ -1050,19 +1050,19 @@
     </row>
     <row r="9" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="I9" s="9"/>
     </row>
@@ -1092,27 +1092,27 @@
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="28" t="s">
+      <c r="G12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="H12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="I12" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="51"/>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
@@ -1123,11 +1123,11 @@
       <c r="F13" s="35"/>
       <c r="G13" s="40"/>
       <c r="H13" s="38"/>
-      <c r="I13" s="43">
+      <c r="I13" s="50">
         <f>H13*F13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="44"/>
+      <c r="J13" s="51"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
@@ -1138,11 +1138,11 @@
       <c r="F14" s="35"/>
       <c r="G14" s="40"/>
       <c r="H14" s="38"/>
-      <c r="I14" s="43">
+      <c r="I14" s="50">
         <f t="shared" ref="I14:I19" si="0">H14*F14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="44"/>
+      <c r="J14" s="51"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
@@ -1153,11 +1153,11 @@
       <c r="F15" s="35"/>
       <c r="G15" s="40"/>
       <c r="H15" s="38"/>
-      <c r="I15" s="43">
+      <c r="I15" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="44"/>
+      <c r="J15" s="51"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
@@ -1168,11 +1168,11 @@
       <c r="F16" s="35"/>
       <c r="G16" s="40"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="43">
+      <c r="I16" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="44"/>
+      <c r="J16" s="51"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
@@ -1183,11 +1183,11 @@
       <c r="F17" s="35"/>
       <c r="G17" s="40"/>
       <c r="H17" s="38"/>
-      <c r="I17" s="43">
+      <c r="I17" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="44"/>
+      <c r="J17" s="51"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
@@ -1198,13 +1198,13 @@
       <c r="F18" s="35"/>
       <c r="G18" s="40"/>
       <c r="H18" s="38"/>
-      <c r="I18" s="43">
+      <c r="I18" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="44"/>
-    </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="51"/>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32"/>
       <c r="B19" s="30"/>
       <c r="C19" s="31"/>
@@ -1213,16 +1213,16 @@
       <c r="F19" s="36"/>
       <c r="G19" s="41"/>
       <c r="H19" s="39"/>
-      <c r="I19" s="48">
+      <c r="I19" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="49"/>
+      <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
@@ -1230,16 +1230,16 @@
       <c r="F20" s="34"/>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="45">
+      <c r="I20" s="43">
         <f>SUM(I13:J19)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="45"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -1247,16 +1247,16 @@
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="46">
+      <c r="I21" s="44">
         <f>I20*11%</f>
         <v>0</v>
       </c>
-      <c r="J21" s="46"/>
+      <c r="J21" s="44"/>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -1264,11 +1264,11 @@
       <c r="F22" s="15"/>
       <c r="G22" s="16"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="47">
+      <c r="I22" s="45">
         <f>I20+I21</f>
         <v>0</v>
       </c>
-      <c r="J22" s="47"/>
+      <c r="J22" s="45"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1343,7 +1343,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="11"/>
       <c r="I28" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" s="17"/>
     </row>
@@ -1390,28 +1390,21 @@
     <row r="34" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="9:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I35" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="13">
+  <mergeCells count="6">
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
   </mergeCells>
   <pageMargins left="0.47222222222221999" right="0" top="1.3388888888888999" bottom="0.19652777777777999" header="0.51181102362205" footer="0.51181102362205"/>
-  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/invoice.xlsx
+++ b/public/invoice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teguh.yuhono\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teguh.yuhono\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2775C6AB-9DD5-4174-8F0E-E4603596821E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D855E23D-5D46-4E46-BBFE-A274035E7498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,6 +536,18 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
     <xf numFmtId="167" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,18 +568,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,89 +584,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="QR Code" descr="QR Code">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="QR Code" descr="QR Code">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -958,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -975,18 +892,18 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1094,12 +1011,12 @@
       <c r="A12" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="28" t="s">
         <v>13</v>
       </c>
@@ -1109,10 +1026,10 @@
       <c r="H12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="I12" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="47"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
@@ -1123,11 +1040,11 @@
       <c r="F13" s="35"/>
       <c r="G13" s="40"/>
       <c r="H13" s="38"/>
-      <c r="I13" s="50">
+      <c r="I13" s="43">
         <f>H13*F13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="51"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
@@ -1138,11 +1055,11 @@
       <c r="F14" s="35"/>
       <c r="G14" s="40"/>
       <c r="H14" s="38"/>
-      <c r="I14" s="50">
+      <c r="I14" s="43">
         <f t="shared" ref="I14:I19" si="0">H14*F14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="51"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
@@ -1153,11 +1070,11 @@
       <c r="F15" s="35"/>
       <c r="G15" s="40"/>
       <c r="H15" s="38"/>
-      <c r="I15" s="50">
+      <c r="I15" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="51"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
@@ -1168,11 +1085,11 @@
       <c r="F16" s="35"/>
       <c r="G16" s="40"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="50">
+      <c r="I16" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="51"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
@@ -1183,11 +1100,11 @@
       <c r="F17" s="35"/>
       <c r="G17" s="40"/>
       <c r="H17" s="38"/>
-      <c r="I17" s="50">
+      <c r="I17" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="51"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
@@ -1198,11 +1115,11 @@
       <c r="F18" s="35"/>
       <c r="G18" s="40"/>
       <c r="H18" s="38"/>
-      <c r="I18" s="50">
+      <c r="I18" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="51"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32"/>
@@ -1213,11 +1130,11 @@
       <c r="F19" s="36"/>
       <c r="G19" s="41"/>
       <c r="H19" s="39"/>
-      <c r="I19" s="52">
+      <c r="I19" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="53"/>
+      <c r="J19" s="46"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
@@ -1230,11 +1147,11 @@
       <c r="F20" s="34"/>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="43">
+      <c r="I20" s="47">
         <f>SUM(I13:J19)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="43"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
@@ -1247,11 +1164,11 @@
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="44">
+      <c r="I21" s="48">
         <f>I20*11%</f>
         <v>0</v>
       </c>
-      <c r="J21" s="44"/>
+      <c r="J21" s="48"/>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
@@ -1264,11 +1181,11 @@
       <c r="F22" s="15"/>
       <c r="G22" s="16"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="45">
+      <c r="I22" s="49">
         <f>I20+I21</f>
         <v>0</v>
       </c>
-      <c r="J22" s="45"/>
+      <c r="J22" s="49"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
@@ -1405,6 +1322,5 @@
   </mergeCells>
   <pageMargins left="0.47222222222221999" right="0" top="1.3388888888888999" bottom="0.19652777777777999" header="0.51181102362205" footer="0.51181102362205"/>
   <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/invoice.xlsx
+++ b/public/invoice.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teguh.yuhono\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teguh.yuhono\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D855E23D-5D46-4E46-BBFE-A274035E7498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7628EDD5-5623-4076-A318-102493015919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -99,12 +99,6 @@
     <t>Please payment to:</t>
   </si>
   <si>
-    <t>BNI CABANG KOSAMBI, KARAWANG</t>
-  </si>
-  <si>
-    <t>No. Rek : 59999 55005</t>
-  </si>
-  <si>
     <t>A/N PT. SARANA ALLOY CASTING</t>
   </si>
   <si>
@@ -115,6 +109,12 @@
   </si>
   <si>
     <t>PT. TOYOTA MOTOR MANUFACTURING INDONESIA</t>
+  </si>
+  <si>
+    <t>BANK BTPN</t>
+  </si>
+  <si>
+    <t>No. Rek : 08003005160</t>
   </si>
 </sst>
 </file>
@@ -876,7 +876,7 @@
   <dimension ref="A4:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -943,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7"/>
     </row>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1260,7 +1260,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="11"/>
       <c r="I28" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J28" s="17"/>
     </row>
@@ -1307,7 +1307,7 @@
     <row r="34" spans="9:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="9:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I35" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/public/invoice.xlsx
+++ b/public/invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teguh.yuhono\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7628EDD5-5623-4076-A318-102493015919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42004ACD-AC12-4BB5-A27B-40C9738F8F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,10 +111,10 @@
     <t>PT. TOYOTA MOTOR MANUFACTURING INDONESIA</t>
   </si>
   <si>
-    <t>BANK BTPN</t>
-  </si>
-  <si>
-    <t>No. Rek : 08003005160</t>
+    <t>PT. Bank SMBC Indonesia Tbk</t>
+  </si>
+  <si>
+    <t>No. Rek : 0800 300 5160</t>
   </si>
 </sst>
 </file>
@@ -876,7 +876,7 @@
   <dimension ref="A4:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/public/invoice.xlsx
+++ b/public/invoice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teguh.yuhono\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEGUH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42004ACD-AC12-4BB5-A27B-40C9738F8F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536ECD02-59D7-421F-B314-295AD9337D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">sheet1!$A$1:$K$36</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -122,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* \-_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* \-_);_(@_)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -444,11 +433,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,7 +457,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -512,49 +501,49 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -876,7 +865,7 @@
   <dimension ref="A4:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="I21" sqref="I21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1154,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="13"/>
       <c r="I21" s="48">
-        <f>I20*11%</f>
+        <f>I20*(11%/12%)</f>
         <v>0</v>
       </c>
       <c r="J21" s="48"/>

--- a/public/invoice.xlsx
+++ b/public/invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEGUH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536ECD02-59D7-421F-B314-295AD9337D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BE57C0-57E8-4199-8F3D-8411C830AAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -864,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I21" sqref="I21:J21"/>
     </sheetView>
   </sheetViews>
@@ -1154,12 +1154,12 @@
       <c r="G21" s="14"/>
       <c r="H21" s="13"/>
       <c r="I21" s="48">
-        <f>I20*(11%/12%)</f>
+        <f>(I20*11/12)*12/100</f>
         <v>0</v>
       </c>
       <c r="J21" s="48"/>
     </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="15" t="s">
         <v>19</v>
